--- a/biology/Botanique/Messire_Jean/Messire_Jean.xlsx
+++ b/biology/Botanique/Messire_Jean/Messire_Jean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Messire Jean est une variété ancienne de poire, datant d'au moins 1550.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Messire Jean doré.
@@ -520,7 +534,7 @@
 Chaulis.
 Messire Jean Chaulis.
 Marion.
-Marion d'Amiens[1].
+Marion d'Amiens.
 Mr John.
 Monsieur John.
 Mister John.
@@ -552,9 +566,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Messire Jean était déjà connue en 1550. Elle figurait dans la sélection des meilleures poires de La Quintinie pour le jardin du roi Louis XIV. La Quintinie « avouait cependant que cette poire n'avait pas le don de plaire à tout le monde[1]... ceux qui ne l'aiment mettent en jeu la pierre à laquelle il est fort sujet... »
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Messire Jean était déjà connue en 1550. Elle figurait dans la sélection des meilleures poires de La Quintinie pour le jardin du roi Louis XIV. La Quintinie « avouait cependant que cette poire n'avait pas le don de plaire à tout le monde... ceux qui ne l'aiment mettent en jeu la pierre à laquelle il est fort sujet... »
 </t>
         </is>
       </c>
@@ -583,10 +599,12 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre vigoureux, assez fertile.
-Bois très faible, aux rameaux étalés peu nombreux, assez courts et légèrement géniculés, brun cendré, abondamment et finement ponctués, à coussinets aplatis, à mérithalles courts[1].
+Bois très faible, aux rameaux étalés peu nombreux, assez courts et légèrement géniculés, brun cendré, abondamment et finement ponctués, à coussinets aplatis, à mérithalles courts.
 </t>
         </is>
       </c>
@@ -615,13 +633,50 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit est de grosseur moyenne, sa peau va du roux au bronzé. C'est une poire à cuire employée dans la fabrication du raisiné. 
-Qualité
-Il est de deuxième qualité pour le couteau, de première pour la compote et le raisiné[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Messire_Jean</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Messire_Jean</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Qualité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est de deuxième qualité pour le couteau, de première pour la compote et le raisiné.
 Sa maturité va de mi-octobre à novembre.
-« La couleur de cette poire varie suivant l'âge, la vigueur de l'arbre, le sujet sur lequel il est greffé. Si le pied est vieux et languissant, le fruit est blanc ; s'il est jeune, vigoureux et sur franc, il est doré ; il devient moins gros, plus pierreux et plus gris sur le cognassier. De là, les trois variétés que certaines personnes séparent de Messire Jean. »[2],[1].
+« La couleur de cette poire varie suivant l'âge, la vigueur de l'arbre, le sujet sur lequel il est greffé. Si le pied est vieux et languissant, le fruit est blanc ; s'il est jeune, vigoureux et sur franc, il est doré ; il devient moins gros, plus pierreux et plus gris sur le cognassier. De là, les trois variétés que certaines personnes séparent de Messire Jean. »,.
 </t>
         </is>
       </c>
